--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
